--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17438.86</v>
+        <v>25452</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8719.43</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4120.33</v>
+        <v>3965.28</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13318.53</v>
+        <v>13427.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6355.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1703.76</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,25 +439,36 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25452</v>
+        <v>1703.76</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1978.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6363</v>
+        <v>6355.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6358.49</v>
       </c>
     </row>
     <row r="4">
@@ -469,6 +480,9 @@
       <c r="B4" t="n">
         <v>3965.28</v>
       </c>
+      <c r="C4" t="n">
+        <v>4085.57</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -479,25 +493,34 @@
       <c r="B5" t="n">
         <v>13427.01</v>
       </c>
+      <c r="C5" t="n">
+        <v>13668.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6355.95</v>
+        <v>6363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6522.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1703.76</v>
+        <v>25452</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26091.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26091.65</v>
+        <v>6358.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6403.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6522.91</v>
+        <v>1978.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1072.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6358.49</v>
+        <v>4085.57</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3829.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1978.7</v>
+        <v>13668.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13210.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4085.57</v>
+        <v>6522.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6129.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13668.89</v>
+        <v>26091.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24516.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -454,9 +454,7 @@
       <c r="B2" t="n">
         <v>6358.49</v>
       </c>
-      <c r="C2" t="n">
-        <v>6403.9</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -467,9 +465,7 @@
       <c r="B3" t="n">
         <v>1978.7</v>
       </c>
-      <c r="C3" t="n">
-        <v>1072.21</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +476,7 @@
       <c r="B4" t="n">
         <v>4085.57</v>
       </c>
-      <c r="C4" t="n">
-        <v>3829.88</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -507,7 +501,7 @@
         <v>6522.91</v>
       </c>
       <c r="C6" t="n">
-        <v>6129.03</v>
+        <v>13210.12</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +514,7 @@
         <v>26091.65</v>
       </c>
       <c r="C7" t="n">
-        <v>24516.11</v>
+        <v>13210.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6358.49</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>6369.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6325.75</v>
+      </c>
       <c r="D2" t="n">
-        <v>6336.76</v>
+        <v>6517.86</v>
       </c>
       <c r="E2" t="n">
-        <v>6410.94</v>
+        <v>6355.7</v>
       </c>
       <c r="F2" t="n">
-        <v>6361.48</v>
+        <v>6322.27</v>
       </c>
       <c r="G2" t="n">
-        <v>6449.71</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6417.96</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6374.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6263.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6338.65</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6292.21</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6369.51</v>
+        <v>6412.19</v>
       </c>
     </row>
     <row r="3">
@@ -543,38 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1978.7</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>850.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>880.78</v>
+      </c>
       <c r="D3" t="n">
-        <v>1194.31</v>
+        <v>880.72</v>
       </c>
       <c r="E3" t="n">
-        <v>1239.57</v>
+        <v>843.21</v>
       </c>
       <c r="F3" t="n">
-        <v>1087.73</v>
+        <v>933.66</v>
       </c>
       <c r="G3" t="n">
-        <v>1123.99</v>
-      </c>
-      <c r="H3" t="n">
-        <v>958.99</v>
-      </c>
-      <c r="I3" t="n">
-        <v>956.87</v>
-      </c>
-      <c r="J3" t="n">
-        <v>973.53</v>
-      </c>
-      <c r="K3" t="n">
-        <v>918.6900000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>964.09</v>
-      </c>
-      <c r="M3" t="n">
-        <v>850.55</v>
+        <v>892.87</v>
       </c>
     </row>
     <row r="4">
@@ -584,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4085.57</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>3947</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4051.12</v>
+      </c>
       <c r="D4" t="n">
-        <v>4280.62</v>
+        <v>4056.62</v>
       </c>
       <c r="E4" t="n">
-        <v>3709.71</v>
+        <v>3927.16</v>
       </c>
       <c r="F4" t="n">
-        <v>4355.11</v>
+        <v>4557.41</v>
       </c>
       <c r="G4" t="n">
-        <v>4539.56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3904.67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3860.05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3835.64</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4479.59</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4531.72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3947</v>
+        <v>3692.8</v>
       </c>
     </row>
     <row r="5">
@@ -625,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13668.89</v>
+        <v>13499.45</v>
       </c>
       <c r="C5" t="n">
-        <v>13210.12</v>
+        <v>13388.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13162.31</v>
+        <v>13394.67</v>
       </c>
       <c r="E5" t="n">
-        <v>13017.12</v>
+        <v>13257.89</v>
       </c>
       <c r="F5" t="n">
-        <v>13173.01</v>
+        <v>13560.72</v>
       </c>
       <c r="G5" t="n">
-        <v>13216.41</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13152.26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13315.37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13641.17</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13550.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13162.96</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13499.45</v>
+        <v>13265.26</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6522.91</v>
+        <v>6166.63</v>
       </c>
       <c r="C6" t="n">
-        <v>13210.12</v>
+        <v>6161.46</v>
       </c>
       <c r="D6" t="n">
-        <v>6243.5</v>
+        <v>6212.47</v>
       </c>
       <c r="E6" t="n">
-        <v>6094.34</v>
+        <v>6095.99</v>
       </c>
       <c r="F6" t="n">
-        <v>6244.33</v>
+        <v>6343.52</v>
       </c>
       <c r="G6" t="n">
-        <v>6332.42</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6108.47</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6126.58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6178.36</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6321.96</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6237.74</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6166.63</v>
+        <v>6065.78</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26091.65</v>
+        <v>24666.51</v>
       </c>
       <c r="C7" t="n">
-        <v>13210.12</v>
+        <v>24645.85</v>
       </c>
       <c r="D7" t="n">
-        <v>24974</v>
+        <v>24849.87</v>
       </c>
       <c r="E7" t="n">
-        <v>24377.34</v>
+        <v>24383.96</v>
       </c>
       <c r="F7" t="n">
-        <v>24977.33</v>
+        <v>25374.06</v>
       </c>
       <c r="G7" t="n">
-        <v>25329.67</v>
-      </c>
-      <c r="H7" t="n">
-        <v>24433.88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24506.32</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24713.44</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25287.83</v>
-      </c>
-      <c r="L7" t="n">
-        <v>24950.98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>24666.51</v>
+        <v>24263.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,38 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>6358.49</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>6336.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6410.94</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6361.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6449.71</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6417.96</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6374.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6263.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6338.65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6292.21</v>
+      </c>
+      <c r="M2" t="n">
         <v>6369.51</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6325.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6517.86</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6355.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6322.27</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6412.19</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +543,38 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1978.7</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1194.31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1239.57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1087.73</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1123.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>958.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>956.87</v>
+      </c>
+      <c r="J3" t="n">
+        <v>973.53</v>
+      </c>
+      <c r="K3" t="n">
+        <v>918.6900000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>964.09</v>
+      </c>
+      <c r="M3" t="n">
         <v>850.55</v>
-      </c>
-      <c r="C3" t="n">
-        <v>880.78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>880.72</v>
-      </c>
-      <c r="E3" t="n">
-        <v>843.21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>933.66</v>
-      </c>
-      <c r="G3" t="n">
-        <v>892.87</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +584,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>4085.57</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4280.62</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3709.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4355.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4539.56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3904.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3860.05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3835.64</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4479.59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4531.72</v>
+      </c>
+      <c r="M4" t="n">
         <v>3947</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4051.12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4056.62</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3927.16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4557.41</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3692.8</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +625,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>13668.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13210.12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13162.31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13017.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13173.01</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13216.41</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13152.26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13315.37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13641.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13550.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13162.96</v>
+      </c>
+      <c r="M5" t="n">
         <v>13499.45</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13388.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13394.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13257.89</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13560.72</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13265.26</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +668,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>6522.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13210.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6243.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6094.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6244.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6332.42</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6108.47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6126.58</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6178.36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6321.96</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6237.74</v>
+      </c>
+      <c r="M6" t="n">
         <v>6166.63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6161.46</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6212.47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6095.99</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6343.52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6065.78</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +711,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>26091.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13210.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24974</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24377.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24977.33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25329.67</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24433.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24506.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24713.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25287.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24950.98</v>
+      </c>
+      <c r="M7" t="n">
         <v>24666.51</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24645.85</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24849.87</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24383.96</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25374.06</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24263.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6358.49</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>6369.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6325.75</v>
+      </c>
       <c r="D2" t="n">
-        <v>6336.76</v>
+        <v>6517.86</v>
       </c>
       <c r="E2" t="n">
-        <v>6410.94</v>
+        <v>6355.7</v>
       </c>
       <c r="F2" t="n">
-        <v>6361.48</v>
+        <v>6322.27</v>
       </c>
       <c r="G2" t="n">
-        <v>6449.71</v>
+        <v>6412.19</v>
       </c>
       <c r="H2" t="n">
-        <v>6417.96</v>
+        <v>6321.49</v>
       </c>
       <c r="I2" t="n">
-        <v>6374.03</v>
+        <v>6364.09</v>
       </c>
       <c r="J2" t="n">
-        <v>6263.1</v>
+        <v>6314.16</v>
       </c>
       <c r="K2" t="n">
-        <v>6338.65</v>
+        <v>6375.96</v>
       </c>
       <c r="L2" t="n">
-        <v>6292.21</v>
+        <v>6410.83</v>
       </c>
       <c r="M2" t="n">
-        <v>6369.51</v>
+        <v>6339.51</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6419.34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6381.93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6301.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6309.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6296.76</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6382.39</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6339.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6350.74</v>
       </c>
     </row>
     <row r="3">
@@ -543,38 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1978.7</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>850.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>880.78</v>
+      </c>
       <c r="D3" t="n">
-        <v>1194.31</v>
+        <v>880.72</v>
       </c>
       <c r="E3" t="n">
-        <v>1239.57</v>
+        <v>843.21</v>
       </c>
       <c r="F3" t="n">
-        <v>1087.73</v>
+        <v>933.66</v>
       </c>
       <c r="G3" t="n">
-        <v>1123.99</v>
+        <v>892.87</v>
       </c>
       <c r="H3" t="n">
-        <v>958.99</v>
+        <v>965.11</v>
       </c>
       <c r="I3" t="n">
-        <v>956.87</v>
+        <v>1089.45</v>
       </c>
       <c r="J3" t="n">
-        <v>973.53</v>
+        <v>830.12</v>
       </c>
       <c r="K3" t="n">
-        <v>918.6900000000001</v>
+        <v>695.62</v>
       </c>
       <c r="L3" t="n">
-        <v>964.09</v>
+        <v>587.63</v>
       </c>
       <c r="M3" t="n">
-        <v>850.55</v>
+        <v>691.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>733.66</v>
+      </c>
+      <c r="O3" t="n">
+        <v>780.85</v>
+      </c>
+      <c r="P3" t="n">
+        <v>584.08</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>610.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>554.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>916.3099999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>555.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>981.58</v>
       </c>
     </row>
     <row r="4">
@@ -584,38 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4085.57</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>3947</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4051.12</v>
+      </c>
       <c r="D4" t="n">
-        <v>4280.62</v>
+        <v>4056.62</v>
       </c>
       <c r="E4" t="n">
-        <v>3709.71</v>
+        <v>3927.16</v>
       </c>
       <c r="F4" t="n">
-        <v>4355.11</v>
+        <v>4557.41</v>
       </c>
       <c r="G4" t="n">
-        <v>4539.56</v>
+        <v>3692.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3904.67</v>
+        <v>3853.39</v>
       </c>
       <c r="I4" t="n">
-        <v>3860.05</v>
+        <v>4610.29</v>
       </c>
       <c r="J4" t="n">
-        <v>3835.64</v>
+        <v>4553.49</v>
       </c>
       <c r="K4" t="n">
-        <v>4479.59</v>
+        <v>3905</v>
       </c>
       <c r="L4" t="n">
-        <v>4531.72</v>
+        <v>4042.23</v>
       </c>
       <c r="M4" t="n">
-        <v>3947</v>
+        <v>4249.22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3723.18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4098.54</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4516.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3880.46</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3708.69</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4201.97</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4396.13</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4370.51</v>
       </c>
     </row>
     <row r="5">
@@ -625,40 +743,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13668.89</v>
+        <v>13499.45</v>
       </c>
       <c r="C5" t="n">
-        <v>13210.12</v>
+        <v>13388.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13162.31</v>
+        <v>13394.67</v>
       </c>
       <c r="E5" t="n">
-        <v>13017.12</v>
+        <v>13257.89</v>
       </c>
       <c r="F5" t="n">
-        <v>13173.01</v>
+        <v>13560.72</v>
       </c>
       <c r="G5" t="n">
-        <v>13216.41</v>
+        <v>13265.26</v>
       </c>
       <c r="H5" t="n">
-        <v>13152.26</v>
+        <v>13438.21</v>
       </c>
       <c r="I5" t="n">
-        <v>13315.37</v>
+        <v>13603.57</v>
       </c>
       <c r="J5" t="n">
-        <v>13641.17</v>
+        <v>13307.95</v>
       </c>
       <c r="K5" t="n">
-        <v>13550.9</v>
+        <v>13531.08</v>
       </c>
       <c r="L5" t="n">
-        <v>13162.96</v>
+        <v>13209.54</v>
       </c>
       <c r="M5" t="n">
-        <v>13499.45</v>
+        <v>13486.16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13237.09</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13421.15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13461.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13604.45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13430.57</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13253.9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13261.88</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13420.46</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +810,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6522.91</v>
+        <v>6166.63</v>
       </c>
       <c r="C6" t="n">
-        <v>13210.12</v>
+        <v>6161.46</v>
       </c>
       <c r="D6" t="n">
-        <v>6243.5</v>
+        <v>6212.47</v>
       </c>
       <c r="E6" t="n">
-        <v>6094.34</v>
+        <v>6095.99</v>
       </c>
       <c r="F6" t="n">
-        <v>6244.33</v>
+        <v>6343.52</v>
       </c>
       <c r="G6" t="n">
-        <v>6332.42</v>
+        <v>6065.78</v>
       </c>
       <c r="H6" t="n">
-        <v>6108.47</v>
+        <v>6144.55</v>
       </c>
       <c r="I6" t="n">
-        <v>6126.58</v>
+        <v>6416.85</v>
       </c>
       <c r="J6" t="n">
-        <v>6178.36</v>
+        <v>6251.43</v>
       </c>
       <c r="K6" t="n">
-        <v>6321.96</v>
+        <v>6126.91</v>
       </c>
       <c r="L6" t="n">
-        <v>6237.74</v>
+        <v>6062.56</v>
       </c>
       <c r="M6" t="n">
-        <v>6166.63</v>
+        <v>6191.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6028.32</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6170.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6215.71</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6101.07</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5997.55</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6188.64</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6138.08</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6280.82</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +877,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26091.65</v>
+        <v>24666.51</v>
       </c>
       <c r="C7" t="n">
-        <v>13210.12</v>
+        <v>24645.85</v>
       </c>
       <c r="D7" t="n">
-        <v>24974</v>
+        <v>24849.87</v>
       </c>
       <c r="E7" t="n">
-        <v>24377.34</v>
+        <v>24383.96</v>
       </c>
       <c r="F7" t="n">
-        <v>24977.33</v>
+        <v>25374.06</v>
       </c>
       <c r="G7" t="n">
-        <v>25329.67</v>
+        <v>24263.12</v>
       </c>
       <c r="H7" t="n">
-        <v>24433.88</v>
+        <v>24578.2</v>
       </c>
       <c r="I7" t="n">
-        <v>24506.32</v>
+        <v>25667.4</v>
       </c>
       <c r="J7" t="n">
-        <v>24713.44</v>
+        <v>25005.72</v>
       </c>
       <c r="K7" t="n">
-        <v>25287.83</v>
+        <v>24507.66</v>
       </c>
       <c r="L7" t="n">
-        <v>24950.98</v>
+        <v>24250.23</v>
       </c>
       <c r="M7" t="n">
-        <v>24666.51</v>
+        <v>24766</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24113.27</v>
+      </c>
+      <c r="O7" t="n">
+        <v>24682.47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>24862.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24404.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>23990.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>24754.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24552.33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>25123.29</v>
       </c>
     </row>
   </sheetData>
